--- a/data/T30R09_data.xlsx
+++ b/data/T30R09_data.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kara Fox\Documents\Kara GLO\RStudio\GLO_sage\Sage_GLO\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jtstevens/Documents/New Mexico/USGS/Research/Sage GLO/Sage_GLO/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B234946-409A-4E64-81FE-81004774BC8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D2F4ABD-1440-1946-8AFA-EE5CACC4599C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{CB280D37-946A-45B6-BF5E-9749DDFEB647}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23260" windowHeight="12580" activeTab="2" xr2:uid="{CB280D37-946A-45B6-BF5E-9749DDFEB647}"/>
   </bookViews>
   <sheets>
-    <sheet name="1881" sheetId="1" r:id="rId1"/>
+    <sheet name="1880Survey" sheetId="1" r:id="rId1"/>
     <sheet name="1881notes" sheetId="2" r:id="rId2"/>
-    <sheet name="1942" sheetId="3" r:id="rId3"/>
+    <sheet name="1940Survey" sheetId="3" r:id="rId3"/>
     <sheet name="1942notes" sheetId="4" r:id="rId4"/>
+    <sheet name="1940Metadata" sheetId="5" r:id="rId5"/>
+    <sheet name="1880Metadata" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -358,7 +360,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1375" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1377" uniqueCount="195">
   <si>
     <t>Survey_type</t>
   </si>
@@ -937,13 +939,19 @@
   </si>
   <si>
     <t xml:space="preserve">The principal use is for graxing apparently roving bands of sheep. It has been badly overgrazed and affords little grass, except on open steep side of mountain. </t>
+  </si>
+  <si>
+    <t>Actually surveyed in 1881; tab reads 1880 for consistency in the data processing R script</t>
+  </si>
+  <si>
+    <t>Actually surveyed in 1942; tab reads 1940 for consistency in the data processing R script</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -982,6 +990,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1003,7 +1018,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1018,6 +1033,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1351,23 +1367,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{174E095E-4713-4227-AF45-9E80B73AE809}">
   <dimension ref="A1:AD73"/>
   <sheetViews>
-    <sheetView topLeftCell="B52" workbookViewId="0">
-      <selection activeCell="G73" sqref="G73"/>
+    <sheetView topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="I81" sqref="I81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="11.21875" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" customWidth="1"/>
+    <col min="3" max="3" width="14.1640625" customWidth="1"/>
     <col min="6" max="6" width="3.6640625" customWidth="1"/>
-    <col min="7" max="7" width="9.5546875" customWidth="1"/>
-    <col min="9" max="9" width="48.5546875" customWidth="1"/>
-    <col min="10" max="10" width="12.21875" customWidth="1"/>
+    <col min="7" max="7" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="48.5" customWidth="1"/>
+    <col min="10" max="10" width="12.1640625" customWidth="1"/>
     <col min="11" max="14" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1441,7 +1457,7 @@
       <c r="AC1" s="4"/>
       <c r="AD1" s="4"/>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -1470,7 +1486,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -1499,7 +1515,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -1528,7 +1544,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -1557,7 +1573,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -1586,7 +1602,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -1615,7 +1631,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -1644,7 +1660,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -1673,7 +1689,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -1702,7 +1718,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -1731,7 +1747,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -1760,7 +1776,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -1789,7 +1805,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -1818,7 +1834,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -1847,7 +1863,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -1876,7 +1892,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -1905,7 +1921,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -1934,7 +1950,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -1963,7 +1979,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -1992,7 +2008,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -2021,7 +2037,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -2050,7 +2066,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -2079,7 +2095,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -2108,7 +2124,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -2137,7 +2153,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -2166,7 +2182,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>21</v>
       </c>
@@ -2195,7 +2211,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -2224,7 +2240,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>21</v>
       </c>
@@ -2253,7 +2269,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>21</v>
       </c>
@@ -2282,7 +2298,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>21</v>
       </c>
@@ -2311,7 +2327,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>21</v>
       </c>
@@ -2340,7 +2356,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>21</v>
       </c>
@@ -2369,7 +2385,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>21</v>
       </c>
@@ -2398,7 +2414,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>21</v>
       </c>
@@ -2427,7 +2443,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>21</v>
       </c>
@@ -2456,7 +2472,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>21</v>
       </c>
@@ -2485,7 +2501,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>21</v>
       </c>
@@ -2514,7 +2530,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>21</v>
       </c>
@@ -2543,7 +2559,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>21</v>
       </c>
@@ -2572,7 +2588,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>21</v>
       </c>
@@ -2601,7 +2617,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>21</v>
       </c>
@@ -2630,7 +2646,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>21</v>
       </c>
@@ -2659,7 +2675,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>21</v>
       </c>
@@ -2688,7 +2704,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>21</v>
       </c>
@@ -2717,7 +2733,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>21</v>
       </c>
@@ -2746,7 +2762,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>21</v>
       </c>
@@ -2775,7 +2791,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>21</v>
       </c>
@@ -2804,7 +2820,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>21</v>
       </c>
@@ -2833,7 +2849,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>21</v>
       </c>
@@ -2862,7 +2878,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>21</v>
       </c>
@@ -2891,7 +2907,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>21</v>
       </c>
@@ -2920,7 +2936,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>21</v>
       </c>
@@ -2949,7 +2965,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>21</v>
       </c>
@@ -2978,7 +2994,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>21</v>
       </c>
@@ -3007,7 +3023,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>21</v>
       </c>
@@ -3036,7 +3052,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>21</v>
       </c>
@@ -3065,7 +3081,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>21</v>
       </c>
@@ -3094,7 +3110,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>21</v>
       </c>
@@ -3123,7 +3139,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>21</v>
       </c>
@@ -3152,7 +3168,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>21</v>
       </c>
@@ -3181,7 +3197,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>21</v>
       </c>
@@ -3210,7 +3226,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>21</v>
       </c>
@@ -3239,7 +3255,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>21</v>
       </c>
@@ -3268,7 +3284,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>21</v>
       </c>
@@ -3297,7 +3313,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>21</v>
       </c>
@@ -3326,7 +3342,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>21</v>
       </c>
@@ -3355,7 +3371,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>21</v>
       </c>
@@ -3384,7 +3400,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>21</v>
       </c>
@@ -3413,7 +3429,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>21</v>
       </c>
@@ -3442,7 +3458,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>21</v>
       </c>
@@ -3471,7 +3487,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>21</v>
       </c>
@@ -3500,7 +3516,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>21</v>
       </c>
@@ -3549,17 +3565,17 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="175.21875" customWidth="1"/>
+    <col min="1" max="1" width="175.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>125</v>
       </c>
@@ -3573,22 +3589,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFF8BA23-2181-43AC-BD4A-B7353BB44392}">
   <dimension ref="A1:AD76"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G2" sqref="G2:G76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.21875" customWidth="1"/>
-    <col min="2" max="2" width="10.88671875" customWidth="1"/>
+    <col min="1" max="1" width="16.1640625" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="6" max="6" width="3.6640625" customWidth="1"/>
-    <col min="9" max="9" width="68.109375" customWidth="1"/>
-    <col min="11" max="11" width="20.44140625" customWidth="1"/>
-    <col min="12" max="12" width="25.77734375" customWidth="1"/>
+    <col min="9" max="9" width="68.1640625" customWidth="1"/>
+    <col min="11" max="11" width="20.5" customWidth="1"/>
+    <col min="12" max="12" width="25.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3662,7 +3678,7 @@
       <c r="AC1" s="4"/>
       <c r="AD1" s="4"/>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -3691,7 +3707,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -3720,7 +3736,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -3749,7 +3765,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -3778,7 +3794,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -3807,7 +3823,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -3836,7 +3852,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -3865,7 +3881,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -3894,7 +3910,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -3923,7 +3939,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -3955,7 +3971,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -3987,7 +4003,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -4019,7 +4035,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -4048,7 +4064,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -4077,7 +4093,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -4106,7 +4122,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -4135,7 +4151,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -4164,7 +4180,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -4193,7 +4209,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -4222,7 +4238,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -4251,7 +4267,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -4280,7 +4296,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -4309,7 +4325,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -4338,7 +4354,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -4367,7 +4383,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -4396,7 +4412,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>21</v>
       </c>
@@ -4425,7 +4441,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -4454,7 +4470,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>21</v>
       </c>
@@ -4483,7 +4499,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>21</v>
       </c>
@@ -4512,7 +4528,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>21</v>
       </c>
@@ -4541,7 +4557,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>21</v>
       </c>
@@ -4570,7 +4586,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>21</v>
       </c>
@@ -4599,7 +4615,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>21</v>
       </c>
@@ -4628,7 +4644,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>21</v>
       </c>
@@ -4657,7 +4673,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>21</v>
       </c>
@@ -4686,7 +4702,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>21</v>
       </c>
@@ -4715,7 +4731,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>21</v>
       </c>
@@ -4744,7 +4760,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>21</v>
       </c>
@@ -4773,7 +4789,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>21</v>
       </c>
@@ -4802,7 +4818,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>21</v>
       </c>
@@ -4831,7 +4847,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>21</v>
       </c>
@@ -4860,7 +4876,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>21</v>
       </c>
@@ -4889,7 +4905,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>21</v>
       </c>
@@ -4918,7 +4934,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>21</v>
       </c>
@@ -4947,7 +4963,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>21</v>
       </c>
@@ -4976,7 +4992,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>21</v>
       </c>
@@ -5005,7 +5021,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>21</v>
       </c>
@@ -5034,7 +5050,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>21</v>
       </c>
@@ -5066,7 +5082,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>21</v>
       </c>
@@ -5095,7 +5111,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>21</v>
       </c>
@@ -5124,7 +5140,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>21</v>
       </c>
@@ -5153,7 +5169,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>21</v>
       </c>
@@ -5182,7 +5198,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>21</v>
       </c>
@@ -5211,7 +5227,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>21</v>
       </c>
@@ -5240,7 +5256,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>21</v>
       </c>
@@ -5269,7 +5285,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>21</v>
       </c>
@@ -5298,7 +5314,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>21</v>
       </c>
@@ -5327,7 +5343,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>21</v>
       </c>
@@ -5356,7 +5372,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>21</v>
       </c>
@@ -5385,7 +5401,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>21</v>
       </c>
@@ -5414,7 +5430,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>21</v>
       </c>
@@ -5443,7 +5459,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>21</v>
       </c>
@@ -5472,7 +5488,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>21</v>
       </c>
@@ -5501,7 +5517,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>21</v>
       </c>
@@ -5530,7 +5546,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>21</v>
       </c>
@@ -5559,7 +5575,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>21</v>
       </c>
@@ -5588,7 +5604,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>21</v>
       </c>
@@ -5617,7 +5633,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>21</v>
       </c>
@@ -5646,7 +5662,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>21</v>
       </c>
@@ -5675,7 +5691,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>21</v>
       </c>
@@ -5704,7 +5720,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>21</v>
       </c>
@@ -5733,7 +5749,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>21</v>
       </c>
@@ -5762,7 +5778,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>21</v>
       </c>
@@ -5791,7 +5807,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>21</v>
       </c>
@@ -5820,7 +5836,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>21</v>
       </c>
@@ -5865,33 +5881,71 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E7887B1-27F4-49EC-9EE3-43E1A87AF807}">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="185.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>192</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D2BEFD8-59D0-264D-B26F-A952D4DBBE72}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>194</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DB54B4E-E2DF-9A46-A6A2-EC9DE86FD5FB}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>193</v>
       </c>
     </row>
   </sheetData>

--- a/data/T30R09_data.xlsx
+++ b/data/T30R09_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kara Fox\Documents\Kara GLO\RStudio\GLO_sage\Sage_GLO\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FB4B928-FFD5-4E49-8546-F4E8D8F469CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BE1CC9A-73DD-4E26-AB4E-671936105C5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-5295" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{CB280D37-946A-45B6-BF5E-9749DDFEB647}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{CB280D37-946A-45B6-BF5E-9749DDFEB647}"/>
   </bookViews>
   <sheets>
     <sheet name="1880Survey" sheetId="1" r:id="rId1"/>
@@ -360,7 +360,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1257" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1275" uniqueCount="184">
   <si>
     <t>Survey_type</t>
   </si>
@@ -900,6 +900,18 @@
   </si>
   <si>
     <t>30-09-32-S</t>
+  </si>
+  <si>
+    <t>June 11-June 22 1940</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Land rolling. Timber, pinon and scrub cedar. Undergrowth, sage. </t>
+  </si>
+  <si>
+    <t>29-09-1940</t>
+  </si>
+  <si>
+    <t>Land, level and rolling. Timber sparse pinon and scrub cedar. Undergrowth, sage.</t>
   </si>
 </sst>
 </file>
@@ -3516,10 +3528,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFF8BA23-2181-43AC-BD4A-B7353BB44392}">
-  <dimension ref="A1:AD64"/>
+  <dimension ref="A1:AD66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A65" sqref="A65:XFD70"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5437,9 +5449,67 @@
         <v>92</v>
       </c>
     </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>21</v>
+      </c>
+      <c r="B65" t="s">
+        <v>182</v>
+      </c>
+      <c r="C65" t="s">
+        <v>177</v>
+      </c>
+      <c r="D65" t="s">
+        <v>23</v>
+      </c>
+      <c r="E65" t="s">
+        <v>114</v>
+      </c>
+      <c r="G65" t="s">
+        <v>115</v>
+      </c>
+      <c r="I65" t="s">
+        <v>183</v>
+      </c>
+      <c r="J65" t="s">
+        <v>91</v>
+      </c>
+      <c r="L65" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>21</v>
+      </c>
+      <c r="B66" t="s">
+        <v>182</v>
+      </c>
+      <c r="C66" t="s">
+        <v>174</v>
+      </c>
+      <c r="D66" t="s">
+        <v>23</v>
+      </c>
+      <c r="E66" t="s">
+        <v>114</v>
+      </c>
+      <c r="G66" t="s">
+        <v>115</v>
+      </c>
+      <c r="I66" t="s">
+        <v>181</v>
+      </c>
+      <c r="J66" t="s">
+        <v>91</v>
+      </c>
+      <c r="L66" t="s">
+        <v>180</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U81">
-    <sortCondition ref="C1"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U64">
+    <sortCondition ref="B1"/>
   </sortState>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="D1">

--- a/data/T30R09_data.xlsx
+++ b/data/T30R09_data.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Ecology\Student_folders_&amp;_files\Kara 2020\GLO\Sage_GLO\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D125420-AA93-48CE-B63A-A4AE8A5DB548}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1486AAEF-4DE7-4923-8339-87D4E04D754B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35640" yWindow="1575" windowWidth="21600" windowHeight="11385" activeTab="4" xr2:uid="{CB280D37-946A-45B6-BF5E-9749DDFEB647}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{CB280D37-946A-45B6-BF5E-9749DDFEB647}"/>
   </bookViews>
   <sheets>
     <sheet name="1880Survey" sheetId="1" r:id="rId1"/>
     <sheet name="1881notes" sheetId="2" r:id="rId2"/>
     <sheet name="1940Survey" sheetId="3" r:id="rId3"/>
     <sheet name="1942notes" sheetId="4" r:id="rId4"/>
-    <sheet name="2004Survey" sheetId="7" r:id="rId5"/>
+    <sheet name="2019Survey" sheetId="7" r:id="rId5"/>
     <sheet name="1940Metadata" sheetId="5" r:id="rId6"/>
     <sheet name="1880Metadata" sheetId="6" r:id="rId7"/>
   </sheets>
@@ -5574,8 +5574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FC08DCA-C4A5-4852-BDE8-0BAFAC300FBF}">
   <dimension ref="A1:C73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5647,7 +5647,7 @@
         <v>87</v>
       </c>
       <c r="C6" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -5658,7 +5658,7 @@
         <v>88</v>
       </c>
       <c r="C7" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -5702,7 +5702,7 @@
         <v>74</v>
       </c>
       <c r="C11" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -5724,7 +5724,7 @@
         <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -5735,7 +5735,7 @@
         <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -5746,7 +5746,7 @@
         <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -5845,7 +5845,7 @@
         <v>85</v>
       </c>
       <c r="C24" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -5856,7 +5856,7 @@
         <v>86</v>
       </c>
       <c r="C25" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -5867,7 +5867,7 @@
         <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -5878,7 +5878,7 @@
         <v>84</v>
       </c>
       <c r="C27" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -5999,7 +5999,7 @@
         <v>28</v>
       </c>
       <c r="C38" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -6010,7 +6010,7 @@
         <v>81</v>
       </c>
       <c r="C39" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -6109,7 +6109,7 @@
         <v>79</v>
       </c>
       <c r="C48" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -6120,7 +6120,7 @@
         <v>80</v>
       </c>
       <c r="C49" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -6131,7 +6131,7 @@
         <v>29</v>
       </c>
       <c r="C50" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -6142,7 +6142,7 @@
         <v>76</v>
       </c>
       <c r="C51" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -6153,7 +6153,7 @@
         <v>66</v>
       </c>
       <c r="C52" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -6241,7 +6241,7 @@
         <v>77</v>
       </c>
       <c r="C60" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -6252,7 +6252,7 @@
         <v>78</v>
       </c>
       <c r="C61" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -6263,7 +6263,7 @@
         <v>30</v>
       </c>
       <c r="C62" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -6274,7 +6274,7 @@
         <v>75</v>
       </c>
       <c r="C63" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -6285,7 +6285,7 @@
         <v>64</v>
       </c>
       <c r="C64" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -6373,7 +6373,7 @@
         <v>179</v>
       </c>
       <c r="C72" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -6384,7 +6384,7 @@
         <v>184</v>
       </c>
       <c r="C73" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/data/T30R09_data.xlsx
+++ b/data/T30R09_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Ecology\Student_folders_&amp;_files\Kara 2020\GLO\Sage_GLO\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1486AAEF-4DE7-4923-8339-87D4E04D754B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D1C18DE-AE31-4C9D-9826-00AD1EED9702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{CB280D37-946A-45B6-BF5E-9749DDFEB647}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CB280D37-946A-45B6-BF5E-9749DDFEB647}"/>
   </bookViews>
   <sheets>
     <sheet name="1880Survey" sheetId="1" r:id="rId1"/>
@@ -1344,8 +1344,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{174E095E-4713-4227-AF45-9E80B73AE809}">
   <dimension ref="A1:AD72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B85" sqref="B85"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3356,7 +3356,7 @@
         <v>175</v>
       </c>
       <c r="C68" t="s">
-        <v>53</v>
+        <v>185</v>
       </c>
       <c r="D68" t="s">
         <v>23</v>
@@ -5574,8 +5574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FC08DCA-C4A5-4852-BDE8-0BAFAC300FBF}">
   <dimension ref="A1:C73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5724,7 +5724,7 @@
         <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -5735,7 +5735,7 @@
         <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -6186,7 +6186,7 @@
         <v>33</v>
       </c>
       <c r="C55" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">

--- a/data/T30R09_data.xlsx
+++ b/data/T30R09_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Ecology\Student_folders_&amp;_files\Kara 2020\GLO\Sage_GLO\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D1C18DE-AE31-4C9D-9826-00AD1EED9702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4159C998-AC32-487E-A3D6-B98F23A9BFC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CB280D37-946A-45B6-BF5E-9749DDFEB647}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{CB280D37-946A-45B6-BF5E-9749DDFEB647}"/>
   </bookViews>
   <sheets>
     <sheet name="1880Survey" sheetId="1" r:id="rId1"/>
@@ -117,7 +117,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{89EEC573-476A-432D-88E1-831EC4A0DDEA}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{89EEC573-476A-432D-88E1-831EC4A0DDEA}">
       <text>
         <r>
           <rPr>
@@ -133,7 +133,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{ECC0255B-64C2-4C0C-982D-DEC54458447D}">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{ECC0255B-64C2-4C0C-982D-DEC54458447D}">
       <text>
         <r>
           <rPr>
@@ -149,7 +149,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{BFBA4880-20E7-44DB-8078-A8644B4156F4}">
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{BFBA4880-20E7-44DB-8078-A8644B4156F4}">
       <text>
         <r>
           <rPr>
@@ -163,7 +163,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{72B2348C-26C8-460E-90F1-E7EAC6B73E05}">
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{72B2348C-26C8-460E-90F1-E7EAC6B73E05}">
       <text>
         <r>
           <rPr>
@@ -179,7 +179,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{95AB90E2-AE1B-43E0-89E8-023B6003D177}">
+    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{95AB90E2-AE1B-43E0-89E8-023B6003D177}">
       <text>
         <r>
           <rPr>
@@ -361,7 +361,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1494" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1493" uniqueCount="187">
   <si>
     <t>Survey_type</t>
   </si>
@@ -1342,10 +1342,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{174E095E-4713-4227-AF45-9E80B73AE809}">
-  <dimension ref="A1:AD72"/>
+  <dimension ref="A1:AC72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="C68" sqref="C68"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:D72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1353,14 +1353,15 @@
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="2" max="2" width="11.140625" customWidth="1"/>
     <col min="3" max="3" width="14.140625" customWidth="1"/>
-    <col min="6" max="6" width="3.7109375" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" customWidth="1"/>
-    <col min="9" max="9" width="48.42578125" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" customWidth="1"/>
-    <col min="11" max="14" width="26.7109375" customWidth="1"/>
+    <col min="5" max="5" width="3.7109375" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" customWidth="1"/>
+    <col min="8" max="8" width="48.42578125" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" customWidth="1"/>
+    <col min="10" max="11" width="26.7109375" customWidth="1"/>
+    <col min="13" max="13" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1370,60 +1371,58 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="M1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="O1" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="P1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="Q1" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="R1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="U1" s="4"/>
       <c r="V1" s="4"/>
       <c r="W1" s="4"/>
       <c r="X1" s="4"/>
@@ -1432,9 +1431,8 @@
       <c r="AA1" s="4"/>
       <c r="AB1" s="4"/>
       <c r="AC1" s="4"/>
-      <c r="AD1" s="4"/>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -1445,25 +1443,25 @@
         <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" t="s">
-        <v>94</v>
-      </c>
-      <c r="G2" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="F2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H2" t="s">
+        <v>96</v>
       </c>
       <c r="I2" t="s">
-        <v>96</v>
-      </c>
-      <c r="J2" t="s">
-        <v>90</v>
+        <v>90</v>
+      </c>
+      <c r="K2" t="s">
+        <v>101</v>
       </c>
       <c r="L2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -1474,25 +1472,25 @@
         <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" t="s">
-        <v>94</v>
-      </c>
-      <c r="G3" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="F3" t="s">
+        <v>95</v>
+      </c>
+      <c r="H3" t="s">
+        <v>96</v>
       </c>
       <c r="I3" t="s">
-        <v>96</v>
-      </c>
-      <c r="J3" t="s">
-        <v>90</v>
-      </c>
-      <c r="L3" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="K3" s="5" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="L3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -1503,25 +1501,25 @@
         <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" t="s">
-        <v>94</v>
-      </c>
-      <c r="G4" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="F4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H4" t="s">
+        <v>96</v>
       </c>
       <c r="I4" t="s">
-        <v>96</v>
-      </c>
-      <c r="J4" t="s">
-        <v>90</v>
+        <v>90</v>
+      </c>
+      <c r="K4" t="s">
+        <v>101</v>
       </c>
       <c r="L4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -1532,25 +1530,25 @@
         <v>52</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" t="s">
-        <v>94</v>
-      </c>
-      <c r="G5" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="F5" t="s">
+        <v>95</v>
+      </c>
+      <c r="H5" t="s">
+        <v>98</v>
       </c>
       <c r="I5" t="s">
-        <v>98</v>
-      </c>
-      <c r="J5" t="s">
-        <v>90</v>
+        <v>90</v>
+      </c>
+      <c r="K5" t="s">
+        <v>104</v>
       </c>
       <c r="L5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -1561,25 +1559,25 @@
         <v>62</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" t="s">
-        <v>94</v>
-      </c>
-      <c r="G6" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="F6" t="s">
+        <v>95</v>
+      </c>
+      <c r="H6" t="s">
+        <v>98</v>
       </c>
       <c r="I6" t="s">
-        <v>98</v>
-      </c>
-      <c r="J6" t="s">
-        <v>90</v>
+        <v>90</v>
+      </c>
+      <c r="K6" t="s">
+        <v>101</v>
       </c>
       <c r="L6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -1590,25 +1588,25 @@
         <v>63</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" t="s">
-        <v>94</v>
-      </c>
-      <c r="G7" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="F7" t="s">
+        <v>95</v>
+      </c>
+      <c r="H7" t="s">
+        <v>98</v>
       </c>
       <c r="I7" t="s">
-        <v>98</v>
-      </c>
-      <c r="J7" t="s">
-        <v>90</v>
+        <v>90</v>
+      </c>
+      <c r="K7" t="s">
+        <v>106</v>
       </c>
       <c r="L7" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -1619,25 +1617,25 @@
         <v>73</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" t="s">
-        <v>94</v>
-      </c>
-      <c r="G8" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="F8" t="s">
+        <v>95</v>
+      </c>
+      <c r="H8" t="s">
+        <v>98</v>
       </c>
       <c r="I8" t="s">
-        <v>98</v>
-      </c>
-      <c r="J8" t="s">
-        <v>90</v>
+        <v>90</v>
+      </c>
+      <c r="K8" t="s">
+        <v>101</v>
       </c>
       <c r="L8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -1648,25 +1646,25 @@
         <v>74</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" t="s">
-        <v>94</v>
-      </c>
-      <c r="G9" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="F9" t="s">
+        <v>95</v>
+      </c>
+      <c r="H9" t="s">
+        <v>98</v>
       </c>
       <c r="I9" t="s">
-        <v>98</v>
-      </c>
-      <c r="J9" t="s">
-        <v>90</v>
+        <v>90</v>
+      </c>
+      <c r="K9" t="s">
+        <v>107</v>
       </c>
       <c r="L9" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -1677,25 +1675,25 @@
         <v>87</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" t="s">
-        <v>94</v>
-      </c>
-      <c r="G10" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="F10" t="s">
+        <v>95</v>
+      </c>
+      <c r="H10" t="s">
+        <v>98</v>
       </c>
       <c r="I10" t="s">
-        <v>98</v>
-      </c>
-      <c r="J10" t="s">
-        <v>90</v>
+        <v>90</v>
+      </c>
+      <c r="K10" t="s">
+        <v>101</v>
       </c>
       <c r="L10" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -1706,25 +1704,25 @@
         <v>88</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" t="s">
-        <v>94</v>
-      </c>
-      <c r="G11" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="F11" t="s">
+        <v>95</v>
+      </c>
+      <c r="H11" t="s">
+        <v>98</v>
       </c>
       <c r="I11" t="s">
-        <v>98</v>
-      </c>
-      <c r="J11" t="s">
-        <v>90</v>
+        <v>90</v>
+      </c>
+      <c r="K11" t="s">
+        <v>101</v>
       </c>
       <c r="L11" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -1735,25 +1733,25 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" t="s">
-        <v>94</v>
-      </c>
-      <c r="G12" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="F12" t="s">
+        <v>95</v>
+      </c>
+      <c r="H12" t="s">
+        <v>96</v>
       </c>
       <c r="I12" t="s">
-        <v>96</v>
-      </c>
-      <c r="J12" t="s">
-        <v>90</v>
+        <v>90</v>
+      </c>
+      <c r="K12" t="s">
+        <v>101</v>
       </c>
       <c r="L12" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -1764,25 +1762,25 @@
         <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" t="s">
-        <v>94</v>
-      </c>
-      <c r="G13" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="F13" t="s">
+        <v>95</v>
+      </c>
+      <c r="H13" t="s">
+        <v>98</v>
       </c>
       <c r="I13" t="s">
-        <v>98</v>
-      </c>
-      <c r="J13" t="s">
-        <v>90</v>
+        <v>90</v>
+      </c>
+      <c r="K13" t="s">
+        <v>110</v>
       </c>
       <c r="L13" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -1793,25 +1791,25 @@
         <v>86</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" t="s">
-        <v>94</v>
-      </c>
-      <c r="G14" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="F14" t="s">
+        <v>95</v>
+      </c>
+      <c r="H14" t="s">
+        <v>98</v>
       </c>
       <c r="I14" t="s">
-        <v>98</v>
-      </c>
-      <c r="J14" t="s">
-        <v>90</v>
+        <v>90</v>
+      </c>
+      <c r="K14" t="s">
+        <v>101</v>
       </c>
       <c r="L14" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -1822,25 +1820,25 @@
         <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" t="s">
-        <v>94</v>
-      </c>
-      <c r="G15" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="F15" t="s">
+        <v>95</v>
+      </c>
+      <c r="H15" t="s">
+        <v>96</v>
       </c>
       <c r="I15" t="s">
-        <v>96</v>
-      </c>
-      <c r="J15" t="s">
-        <v>90</v>
+        <v>90</v>
+      </c>
+      <c r="K15" t="s">
+        <v>101</v>
       </c>
       <c r="L15" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -1851,22 +1849,22 @@
         <v>85</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" t="s">
-        <v>94</v>
-      </c>
-      <c r="G16" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="F16" t="s">
+        <v>95</v>
+      </c>
+      <c r="H16" t="s">
+        <v>97</v>
       </c>
       <c r="I16" t="s">
-        <v>97</v>
-      </c>
-      <c r="J16" t="s">
-        <v>90</v>
+        <v>90</v>
+      </c>
+      <c r="K16" t="s">
+        <v>101</v>
       </c>
       <c r="L16" t="s">
-        <v>101</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -1880,22 +1878,22 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" t="s">
-        <v>94</v>
-      </c>
-      <c r="G17" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="F17" t="s">
+        <v>95</v>
+      </c>
+      <c r="H17" t="s">
+        <v>109</v>
       </c>
       <c r="I17" t="s">
-        <v>109</v>
-      </c>
-      <c r="J17" t="s">
-        <v>90</v>
+        <v>90</v>
+      </c>
+      <c r="K17" t="s">
+        <v>101</v>
       </c>
       <c r="L17" t="s">
-        <v>101</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -1909,22 +1907,22 @@
         <v>71</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18" t="s">
-        <v>94</v>
-      </c>
-      <c r="G18" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="F18" t="s">
+        <v>95</v>
+      </c>
+      <c r="H18" t="s">
+        <v>98</v>
       </c>
       <c r="I18" t="s">
-        <v>98</v>
-      </c>
-      <c r="J18" t="s">
-        <v>90</v>
+        <v>90</v>
+      </c>
+      <c r="K18" t="s">
+        <v>101</v>
       </c>
       <c r="L18" t="s">
-        <v>101</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -1938,22 +1936,22 @@
         <v>72</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19" t="s">
-        <v>94</v>
-      </c>
-      <c r="G19" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="F19" t="s">
+        <v>95</v>
+      </c>
+      <c r="H19" t="s">
+        <v>98</v>
       </c>
       <c r="I19" t="s">
-        <v>98</v>
-      </c>
-      <c r="J19" t="s">
-        <v>90</v>
+        <v>90</v>
+      </c>
+      <c r="K19" t="s">
+        <v>101</v>
       </c>
       <c r="L19" t="s">
-        <v>101</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -1967,22 +1965,22 @@
         <v>60</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20" t="s">
-        <v>94</v>
-      </c>
-      <c r="G20" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="F20" t="s">
+        <v>95</v>
+      </c>
+      <c r="H20" t="s">
+        <v>98</v>
       </c>
       <c r="I20" t="s">
-        <v>98</v>
-      </c>
-      <c r="J20" t="s">
-        <v>90</v>
+        <v>90</v>
+      </c>
+      <c r="K20" t="s">
+        <v>101</v>
       </c>
       <c r="L20" t="s">
-        <v>101</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -1996,22 +1994,22 @@
         <v>61</v>
       </c>
       <c r="D21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21" t="s">
-        <v>94</v>
-      </c>
-      <c r="G21" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="F21" t="s">
+        <v>95</v>
+      </c>
+      <c r="H21" t="s">
+        <v>98</v>
       </c>
       <c r="I21" t="s">
-        <v>98</v>
-      </c>
-      <c r="J21" t="s">
-        <v>90</v>
+        <v>90</v>
+      </c>
+      <c r="K21" t="s">
+        <v>101</v>
       </c>
       <c r="L21" t="s">
-        <v>101</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -2025,22 +2023,22 @@
         <v>49</v>
       </c>
       <c r="D22" t="s">
-        <v>23</v>
-      </c>
-      <c r="E22" t="s">
-        <v>94</v>
-      </c>
-      <c r="G22" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="F22" t="s">
+        <v>95</v>
+      </c>
+      <c r="H22" t="s">
+        <v>96</v>
       </c>
       <c r="I22" t="s">
-        <v>96</v>
-      </c>
-      <c r="J22" t="s">
-        <v>90</v>
+        <v>90</v>
+      </c>
+      <c r="K22" t="s">
+        <v>101</v>
       </c>
       <c r="L22" t="s">
-        <v>101</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -2054,22 +2052,22 @@
         <v>50</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
-      </c>
-      <c r="E23" t="s">
-        <v>94</v>
-      </c>
-      <c r="G23" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="F23" t="s">
+        <v>95</v>
+      </c>
+      <c r="H23" t="s">
+        <v>96</v>
       </c>
       <c r="I23" t="s">
-        <v>96</v>
-      </c>
-      <c r="J23" t="s">
-        <v>90</v>
+        <v>90</v>
+      </c>
+      <c r="K23" t="s">
+        <v>101</v>
       </c>
       <c r="L23" t="s">
-        <v>101</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -2083,22 +2081,22 @@
         <v>38</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24" t="s">
-        <v>94</v>
-      </c>
-      <c r="G24" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="F24" t="s">
+        <v>95</v>
+      </c>
+      <c r="H24" t="s">
+        <v>96</v>
       </c>
       <c r="I24" t="s">
-        <v>96</v>
-      </c>
-      <c r="J24" t="s">
-        <v>90</v>
+        <v>90</v>
+      </c>
+      <c r="K24" t="s">
+        <v>101</v>
       </c>
       <c r="L24" t="s">
-        <v>101</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -2112,22 +2110,22 @@
         <v>39</v>
       </c>
       <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25" t="s">
-        <v>94</v>
-      </c>
-      <c r="G25" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="F25" t="s">
+        <v>95</v>
+      </c>
+      <c r="H25" t="s">
+        <v>96</v>
       </c>
       <c r="I25" t="s">
-        <v>96</v>
-      </c>
-      <c r="J25" t="s">
-        <v>90</v>
+        <v>90</v>
+      </c>
+      <c r="K25" t="s">
+        <v>101</v>
       </c>
       <c r="L25" t="s">
-        <v>101</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -2141,22 +2139,22 @@
         <v>36</v>
       </c>
       <c r="D26" t="s">
-        <v>23</v>
-      </c>
-      <c r="E26" t="s">
-        <v>94</v>
-      </c>
-      <c r="G26" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="F26" t="s">
+        <v>95</v>
+      </c>
+      <c r="H26" t="s">
+        <v>97</v>
       </c>
       <c r="I26" t="s">
-        <v>97</v>
-      </c>
-      <c r="J26" t="s">
-        <v>90</v>
+        <v>90</v>
+      </c>
+      <c r="K26" t="s">
+        <v>101</v>
       </c>
       <c r="L26" t="s">
-        <v>101</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -2170,22 +2168,22 @@
         <v>37</v>
       </c>
       <c r="D27" t="s">
-        <v>23</v>
-      </c>
-      <c r="E27" t="s">
-        <v>94</v>
-      </c>
-      <c r="G27" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="F27" t="s">
+        <v>95</v>
+      </c>
+      <c r="H27" t="s">
+        <v>98</v>
       </c>
       <c r="I27" t="s">
-        <v>98</v>
-      </c>
-      <c r="J27" t="s">
-        <v>90</v>
+        <v>90</v>
+      </c>
+      <c r="K27" t="s">
+        <v>101</v>
       </c>
       <c r="L27" t="s">
-        <v>101</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -2199,22 +2197,22 @@
         <v>47</v>
       </c>
       <c r="D28" t="s">
-        <v>23</v>
-      </c>
-      <c r="E28" t="s">
-        <v>94</v>
-      </c>
-      <c r="G28" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="F28" t="s">
+        <v>95</v>
+      </c>
+      <c r="H28" t="s">
+        <v>96</v>
       </c>
       <c r="I28" t="s">
-        <v>96</v>
-      </c>
-      <c r="J28" t="s">
-        <v>90</v>
+        <v>90</v>
+      </c>
+      <c r="K28" t="s">
+        <v>101</v>
       </c>
       <c r="L28" t="s">
-        <v>101</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -2228,22 +2226,22 @@
         <v>48</v>
       </c>
       <c r="D29" t="s">
-        <v>23</v>
-      </c>
-      <c r="E29" t="s">
-        <v>94</v>
-      </c>
-      <c r="G29" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="F29" t="s">
+        <v>95</v>
+      </c>
+      <c r="H29" t="s">
+        <v>96</v>
       </c>
       <c r="I29" t="s">
-        <v>96</v>
-      </c>
-      <c r="J29" t="s">
-        <v>90</v>
+        <v>90</v>
+      </c>
+      <c r="K29" t="s">
+        <v>101</v>
       </c>
       <c r="L29" t="s">
-        <v>101</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -2257,22 +2255,22 @@
         <v>58</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
-      </c>
-      <c r="E30" t="s">
-        <v>94</v>
-      </c>
-      <c r="G30" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="F30" t="s">
+        <v>95</v>
+      </c>
+      <c r="H30" t="s">
+        <v>96</v>
       </c>
       <c r="I30" t="s">
-        <v>96</v>
-      </c>
-      <c r="J30" t="s">
-        <v>90</v>
+        <v>90</v>
+      </c>
+      <c r="K30" t="s">
+        <v>101</v>
       </c>
       <c r="L30" t="s">
-        <v>101</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -2286,22 +2284,22 @@
         <v>59</v>
       </c>
       <c r="D31" t="s">
-        <v>23</v>
-      </c>
-      <c r="E31" t="s">
-        <v>94</v>
-      </c>
-      <c r="G31" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="F31" t="s">
+        <v>95</v>
+      </c>
+      <c r="H31" t="s">
+        <v>96</v>
       </c>
       <c r="I31" t="s">
-        <v>96</v>
-      </c>
-      <c r="J31" t="s">
-        <v>90</v>
+        <v>90</v>
+      </c>
+      <c r="K31" t="s">
+        <v>101</v>
       </c>
       <c r="L31" t="s">
-        <v>101</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -2315,22 +2313,22 @@
         <v>69</v>
       </c>
       <c r="D32" t="s">
-        <v>23</v>
-      </c>
-      <c r="E32" t="s">
-        <v>94</v>
-      </c>
-      <c r="G32" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="F32" t="s">
+        <v>95</v>
+      </c>
+      <c r="H32" t="s">
+        <v>98</v>
       </c>
       <c r="I32" t="s">
-        <v>98</v>
-      </c>
-      <c r="J32" t="s">
-        <v>90</v>
+        <v>90</v>
+      </c>
+      <c r="K32" t="s">
+        <v>101</v>
       </c>
       <c r="L32" t="s">
-        <v>101</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -2344,22 +2342,22 @@
         <v>70</v>
       </c>
       <c r="D33" t="s">
-        <v>23</v>
-      </c>
-      <c r="E33" t="s">
-        <v>94</v>
-      </c>
-      <c r="G33" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="F33" t="s">
+        <v>95</v>
+      </c>
+      <c r="H33" t="s">
+        <v>96</v>
       </c>
       <c r="I33" t="s">
-        <v>96</v>
-      </c>
-      <c r="J33" t="s">
-        <v>90</v>
+        <v>90</v>
+      </c>
+      <c r="K33" t="s">
+        <v>101</v>
       </c>
       <c r="L33" t="s">
-        <v>101</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -2373,22 +2371,22 @@
         <v>82</v>
       </c>
       <c r="D34" t="s">
-        <v>23</v>
-      </c>
-      <c r="E34" t="s">
-        <v>94</v>
-      </c>
-      <c r="G34" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="F34" t="s">
+        <v>95</v>
+      </c>
+      <c r="H34" t="s">
+        <v>98</v>
       </c>
       <c r="I34" t="s">
-        <v>98</v>
-      </c>
-      <c r="J34" t="s">
-        <v>90</v>
+        <v>90</v>
+      </c>
+      <c r="K34" t="s">
+        <v>101</v>
       </c>
       <c r="L34" t="s">
-        <v>101</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -2402,22 +2400,22 @@
         <v>84</v>
       </c>
       <c r="D35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35" t="s">
-        <v>94</v>
-      </c>
-      <c r="G35" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="F35" t="s">
+        <v>95</v>
+      </c>
+      <c r="H35" t="s">
+        <v>98</v>
       </c>
       <c r="I35" t="s">
-        <v>98</v>
-      </c>
-      <c r="J35" t="s">
-        <v>90</v>
+        <v>90</v>
+      </c>
+      <c r="K35" t="s">
+        <v>101</v>
       </c>
       <c r="L35" t="s">
-        <v>101</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -2431,22 +2429,22 @@
         <v>83</v>
       </c>
       <c r="D36" t="s">
-        <v>23</v>
-      </c>
-      <c r="E36" t="s">
-        <v>94</v>
-      </c>
-      <c r="G36" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="F36" t="s">
+        <v>95</v>
+      </c>
+      <c r="H36" t="s">
+        <v>98</v>
       </c>
       <c r="I36" t="s">
-        <v>98</v>
-      </c>
-      <c r="J36" t="s">
-        <v>90</v>
+        <v>90</v>
+      </c>
+      <c r="K36" t="s">
+        <v>101</v>
       </c>
       <c r="L36" t="s">
-        <v>101</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -2460,22 +2458,22 @@
         <v>27</v>
       </c>
       <c r="D37" t="s">
-        <v>23</v>
-      </c>
-      <c r="E37" t="s">
-        <v>94</v>
-      </c>
-      <c r="G37" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="F37" t="s">
+        <v>95</v>
+      </c>
+      <c r="H37" t="s">
+        <v>97</v>
       </c>
       <c r="I37" t="s">
-        <v>97</v>
-      </c>
-      <c r="J37" t="s">
-        <v>90</v>
+        <v>90</v>
+      </c>
+      <c r="K37" t="s">
+        <v>101</v>
       </c>
       <c r="L37" t="s">
-        <v>101</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -2489,22 +2487,22 @@
         <v>80</v>
       </c>
       <c r="D38" t="s">
-        <v>23</v>
-      </c>
-      <c r="E38" t="s">
-        <v>94</v>
-      </c>
-      <c r="G38" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="F38" t="s">
+        <v>95</v>
+      </c>
+      <c r="H38" t="s">
+        <v>96</v>
       </c>
       <c r="I38" t="s">
-        <v>96</v>
-      </c>
-      <c r="J38" t="s">
-        <v>90</v>
+        <v>90</v>
+      </c>
+      <c r="K38" t="s">
+        <v>101</v>
       </c>
       <c r="L38" t="s">
-        <v>101</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -2518,22 +2516,22 @@
         <v>28</v>
       </c>
       <c r="D39" t="s">
-        <v>23</v>
-      </c>
-      <c r="E39" t="s">
-        <v>94</v>
-      </c>
-      <c r="G39" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="F39" t="s">
+        <v>95</v>
+      </c>
+      <c r="H39" t="s">
+        <v>97</v>
       </c>
       <c r="I39" t="s">
-        <v>97</v>
-      </c>
-      <c r="J39" t="s">
-        <v>90</v>
+        <v>90</v>
+      </c>
+      <c r="K39" t="s">
+        <v>101</v>
       </c>
       <c r="L39" t="s">
-        <v>101</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -2547,22 +2545,22 @@
         <v>79</v>
       </c>
       <c r="D40" t="s">
-        <v>23</v>
-      </c>
-      <c r="E40" t="s">
-        <v>94</v>
-      </c>
-      <c r="G40" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="F40" t="s">
+        <v>95</v>
+      </c>
+      <c r="H40" t="s">
+        <v>96</v>
       </c>
       <c r="I40" t="s">
-        <v>96</v>
-      </c>
-      <c r="J40" t="s">
-        <v>90</v>
+        <v>90</v>
+      </c>
+      <c r="K40" t="s">
+        <v>101</v>
       </c>
       <c r="L40" t="s">
-        <v>101</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
@@ -2576,22 +2574,22 @@
         <v>81</v>
       </c>
       <c r="D41" t="s">
-        <v>23</v>
-      </c>
-      <c r="E41" t="s">
-        <v>94</v>
-      </c>
-      <c r="G41" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="F41" t="s">
+        <v>95</v>
+      </c>
+      <c r="H41" t="s">
+        <v>98</v>
       </c>
       <c r="I41" t="s">
-        <v>98</v>
-      </c>
-      <c r="J41" t="s">
-        <v>90</v>
+        <v>90</v>
+      </c>
+      <c r="K41" t="s">
+        <v>108</v>
       </c>
       <c r="L41" t="s">
-        <v>108</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -2605,22 +2603,22 @@
         <v>67</v>
       </c>
       <c r="D42" t="s">
-        <v>23</v>
-      </c>
-      <c r="E42" t="s">
-        <v>94</v>
-      </c>
-      <c r="G42" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="F42" t="s">
+        <v>95</v>
+      </c>
+      <c r="H42" t="s">
+        <v>96</v>
       </c>
       <c r="I42" t="s">
-        <v>96</v>
-      </c>
-      <c r="J42" t="s">
-        <v>90</v>
+        <v>90</v>
+      </c>
+      <c r="K42" t="s">
+        <v>101</v>
       </c>
       <c r="L42" t="s">
-        <v>101</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
@@ -2634,22 +2632,22 @@
         <v>68</v>
       </c>
       <c r="D43" t="s">
-        <v>23</v>
-      </c>
-      <c r="E43" t="s">
-        <v>94</v>
-      </c>
-      <c r="G43" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="F43" t="s">
+        <v>95</v>
+      </c>
+      <c r="H43" t="s">
+        <v>98</v>
       </c>
       <c r="I43" t="s">
-        <v>98</v>
-      </c>
-      <c r="J43" t="s">
-        <v>90</v>
+        <v>90</v>
+      </c>
+      <c r="K43" t="s">
+        <v>101</v>
       </c>
       <c r="L43" t="s">
-        <v>101</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
@@ -2663,22 +2661,22 @@
         <v>56</v>
       </c>
       <c r="D44" t="s">
-        <v>23</v>
-      </c>
-      <c r="E44" t="s">
-        <v>94</v>
-      </c>
-      <c r="G44" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="F44" t="s">
+        <v>95</v>
+      </c>
+      <c r="H44" t="s">
+        <v>96</v>
       </c>
       <c r="I44" t="s">
-        <v>96</v>
-      </c>
-      <c r="J44" t="s">
-        <v>90</v>
+        <v>90</v>
+      </c>
+      <c r="K44" t="s">
+        <v>101</v>
       </c>
       <c r="L44" t="s">
-        <v>101</v>
+        <v>23</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
@@ -2692,22 +2690,22 @@
         <v>57</v>
       </c>
       <c r="D45" t="s">
-        <v>23</v>
-      </c>
-      <c r="E45" t="s">
-        <v>94</v>
-      </c>
-      <c r="G45" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="F45" t="s">
+        <v>95</v>
+      </c>
+      <c r="H45" t="s">
+        <v>96</v>
       </c>
       <c r="I45" t="s">
-        <v>96</v>
-      </c>
-      <c r="J45" t="s">
-        <v>90</v>
+        <v>90</v>
+      </c>
+      <c r="K45" t="s">
+        <v>101</v>
       </c>
       <c r="L45" t="s">
-        <v>101</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
@@ -2721,22 +2719,22 @@
         <v>45</v>
       </c>
       <c r="D46" t="s">
-        <v>23</v>
-      </c>
-      <c r="E46" t="s">
-        <v>94</v>
-      </c>
-      <c r="G46" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="F46" t="s">
+        <v>95</v>
+      </c>
+      <c r="H46" t="s">
+        <v>103</v>
       </c>
       <c r="I46" t="s">
-        <v>103</v>
-      </c>
-      <c r="J46" t="s">
-        <v>90</v>
+        <v>90</v>
+      </c>
+      <c r="K46" t="s">
+        <v>101</v>
       </c>
       <c r="L46" t="s">
-        <v>101</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
@@ -2750,22 +2748,22 @@
         <v>46</v>
       </c>
       <c r="D47" t="s">
-        <v>23</v>
-      </c>
-      <c r="E47" t="s">
-        <v>94</v>
-      </c>
-      <c r="G47" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="F47" t="s">
+        <v>95</v>
+      </c>
+      <c r="H47" t="s">
+        <v>96</v>
       </c>
       <c r="I47" t="s">
-        <v>96</v>
-      </c>
-      <c r="J47" t="s">
-        <v>90</v>
+        <v>90</v>
+      </c>
+      <c r="K47" t="s">
+        <v>101</v>
       </c>
       <c r="L47" t="s">
-        <v>101</v>
+        <v>23</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
@@ -2779,22 +2777,22 @@
         <v>34</v>
       </c>
       <c r="D48" t="s">
-        <v>23</v>
-      </c>
-      <c r="E48" t="s">
-        <v>94</v>
-      </c>
-      <c r="G48" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="F48" t="s">
+        <v>95</v>
+      </c>
+      <c r="H48" t="s">
+        <v>99</v>
       </c>
       <c r="I48" t="s">
-        <v>99</v>
-      </c>
-      <c r="J48" t="s">
-        <v>90</v>
+        <v>90</v>
+      </c>
+      <c r="K48" t="s">
+        <v>101</v>
       </c>
       <c r="L48" t="s">
-        <v>101</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
@@ -2808,22 +2806,22 @@
         <v>35</v>
       </c>
       <c r="D49" t="s">
-        <v>23</v>
-      </c>
-      <c r="E49" t="s">
-        <v>94</v>
-      </c>
-      <c r="G49" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="F49" t="s">
+        <v>95</v>
+      </c>
+      <c r="H49" t="s">
+        <v>97</v>
       </c>
       <c r="I49" t="s">
-        <v>97</v>
-      </c>
-      <c r="J49" t="s">
-        <v>90</v>
+        <v>90</v>
+      </c>
+      <c r="K49" t="s">
+        <v>101</v>
       </c>
       <c r="L49" t="s">
-        <v>101</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
@@ -2837,22 +2835,22 @@
         <v>32</v>
       </c>
       <c r="D50" t="s">
-        <v>23</v>
-      </c>
-      <c r="E50" t="s">
-        <v>94</v>
-      </c>
-      <c r="G50" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="F50" t="s">
+        <v>95</v>
+      </c>
+      <c r="H50" t="s">
+        <v>98</v>
       </c>
       <c r="I50" t="s">
-        <v>98</v>
-      </c>
-      <c r="J50" t="s">
-        <v>90</v>
+        <v>90</v>
+      </c>
+      <c r="K50" t="s">
+        <v>101</v>
       </c>
       <c r="L50" t="s">
-        <v>101</v>
+        <v>23</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
@@ -2866,22 +2864,22 @@
         <v>33</v>
       </c>
       <c r="D51" t="s">
-        <v>23</v>
-      </c>
-      <c r="E51" t="s">
-        <v>94</v>
-      </c>
-      <c r="G51" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="F51" t="s">
+        <v>95</v>
+      </c>
+      <c r="H51" t="s">
+        <v>97</v>
       </c>
       <c r="I51" t="s">
-        <v>97</v>
-      </c>
-      <c r="J51" t="s">
-        <v>90</v>
+        <v>90</v>
+      </c>
+      <c r="K51" t="s">
+        <v>101</v>
       </c>
       <c r="L51" t="s">
-        <v>101</v>
+        <v>23</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
@@ -2895,22 +2893,22 @@
         <v>43</v>
       </c>
       <c r="D52" t="s">
-        <v>23</v>
-      </c>
-      <c r="E52" t="s">
-        <v>94</v>
-      </c>
-      <c r="G52" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="F52" t="s">
+        <v>95</v>
+      </c>
+      <c r="H52" t="s">
+        <v>102</v>
       </c>
       <c r="I52" t="s">
-        <v>102</v>
-      </c>
-      <c r="J52" t="s">
-        <v>90</v>
+        <v>90</v>
+      </c>
+      <c r="K52" t="s">
+        <v>101</v>
       </c>
       <c r="L52" t="s">
-        <v>101</v>
+        <v>23</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
@@ -2924,22 +2922,22 @@
         <v>44</v>
       </c>
       <c r="D53" t="s">
-        <v>23</v>
-      </c>
-      <c r="E53" t="s">
-        <v>94</v>
-      </c>
-      <c r="G53" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="F53" t="s">
+        <v>95</v>
+      </c>
+      <c r="H53" t="s">
+        <v>98</v>
       </c>
       <c r="I53" t="s">
-        <v>98</v>
-      </c>
-      <c r="J53" t="s">
-        <v>90</v>
+        <v>90</v>
+      </c>
+      <c r="K53" t="s">
+        <v>101</v>
       </c>
       <c r="L53" t="s">
-        <v>101</v>
+        <v>23</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
@@ -2953,22 +2951,22 @@
         <v>54</v>
       </c>
       <c r="D54" t="s">
-        <v>23</v>
-      </c>
-      <c r="E54" t="s">
-        <v>94</v>
-      </c>
-      <c r="G54" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="F54" t="s">
+        <v>95</v>
+      </c>
+      <c r="H54" t="s">
+        <v>105</v>
       </c>
       <c r="I54" t="s">
-        <v>105</v>
-      </c>
-      <c r="J54" t="s">
-        <v>90</v>
+        <v>90</v>
+      </c>
+      <c r="K54" t="s">
+        <v>101</v>
       </c>
       <c r="L54" t="s">
-        <v>101</v>
+        <v>23</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
@@ -2982,22 +2980,22 @@
         <v>55</v>
       </c>
       <c r="D55" t="s">
-        <v>23</v>
-      </c>
-      <c r="E55" t="s">
-        <v>94</v>
-      </c>
-      <c r="G55" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="F55" t="s">
+        <v>95</v>
+      </c>
+      <c r="H55" t="s">
+        <v>98</v>
       </c>
       <c r="I55" t="s">
-        <v>98</v>
-      </c>
-      <c r="J55" t="s">
-        <v>90</v>
+        <v>90</v>
+      </c>
+      <c r="K55" t="s">
+        <v>101</v>
       </c>
       <c r="L55" t="s">
-        <v>101</v>
+        <v>23</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
@@ -3011,22 +3009,22 @@
         <v>65</v>
       </c>
       <c r="D56" t="s">
-        <v>23</v>
-      </c>
-      <c r="E56" t="s">
-        <v>94</v>
-      </c>
-      <c r="G56" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="F56" t="s">
+        <v>95</v>
+      </c>
+      <c r="H56" t="s">
+        <v>96</v>
       </c>
       <c r="I56" t="s">
-        <v>96</v>
-      </c>
-      <c r="J56" t="s">
-        <v>90</v>
+        <v>90</v>
+      </c>
+      <c r="K56" t="s">
+        <v>101</v>
       </c>
       <c r="L56" t="s">
-        <v>101</v>
+        <v>23</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
@@ -3040,22 +3038,22 @@
         <v>66</v>
       </c>
       <c r="D57" t="s">
-        <v>23</v>
-      </c>
-      <c r="E57" t="s">
-        <v>94</v>
-      </c>
-      <c r="G57" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="F57" t="s">
+        <v>95</v>
+      </c>
+      <c r="H57" t="s">
+        <v>96</v>
       </c>
       <c r="I57" t="s">
-        <v>96</v>
-      </c>
-      <c r="J57" t="s">
-        <v>90</v>
+        <v>90</v>
+      </c>
+      <c r="K57" t="s">
+        <v>101</v>
       </c>
       <c r="L57" t="s">
-        <v>101</v>
+        <v>23</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
@@ -3069,22 +3067,22 @@
         <v>77</v>
       </c>
       <c r="D58" t="s">
-        <v>23</v>
-      </c>
-      <c r="E58" t="s">
-        <v>94</v>
-      </c>
-      <c r="G58" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="F58" t="s">
+        <v>95</v>
+      </c>
+      <c r="H58" t="s">
+        <v>96</v>
       </c>
       <c r="I58" t="s">
-        <v>96</v>
-      </c>
-      <c r="J58" t="s">
-        <v>90</v>
+        <v>90</v>
+      </c>
+      <c r="K58" t="s">
+        <v>101</v>
       </c>
       <c r="L58" t="s">
-        <v>101</v>
+        <v>23</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
@@ -3098,22 +3096,22 @@
         <v>76</v>
       </c>
       <c r="D59" t="s">
-        <v>23</v>
-      </c>
-      <c r="E59" t="s">
-        <v>94</v>
-      </c>
-      <c r="G59" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="F59" t="s">
+        <v>95</v>
+      </c>
+      <c r="H59" t="s">
+        <v>96</v>
       </c>
       <c r="I59" t="s">
-        <v>96</v>
-      </c>
-      <c r="J59" t="s">
-        <v>90</v>
+        <v>90</v>
+      </c>
+      <c r="K59" t="s">
+        <v>101</v>
       </c>
       <c r="L59" t="s">
-        <v>101</v>
+        <v>23</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
@@ -3127,22 +3125,22 @@
         <v>78</v>
       </c>
       <c r="D60" t="s">
-        <v>23</v>
-      </c>
-      <c r="E60" t="s">
-        <v>94</v>
-      </c>
-      <c r="G60" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="F60" t="s">
+        <v>95</v>
+      </c>
+      <c r="H60" t="s">
+        <v>96</v>
       </c>
       <c r="I60" t="s">
-        <v>96</v>
-      </c>
-      <c r="J60" t="s">
-        <v>90</v>
+        <v>90</v>
+      </c>
+      <c r="K60" t="s">
+        <v>101</v>
       </c>
       <c r="L60" t="s">
-        <v>101</v>
+        <v>23</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
@@ -3156,22 +3154,22 @@
         <v>29</v>
       </c>
       <c r="D61" t="s">
-        <v>23</v>
-      </c>
-      <c r="E61" t="s">
-        <v>94</v>
-      </c>
-      <c r="G61" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="F61" t="s">
+        <v>95</v>
+      </c>
+      <c r="H61" t="s">
+        <v>96</v>
       </c>
       <c r="I61" t="s">
-        <v>96</v>
-      </c>
-      <c r="J61" t="s">
-        <v>90</v>
+        <v>90</v>
+      </c>
+      <c r="K61" t="s">
+        <v>101</v>
       </c>
       <c r="L61" t="s">
-        <v>101</v>
+        <v>23</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
@@ -3185,22 +3183,22 @@
         <v>30</v>
       </c>
       <c r="D62" t="s">
-        <v>23</v>
-      </c>
-      <c r="E62" t="s">
-        <v>94</v>
-      </c>
-      <c r="G62" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="F62" t="s">
+        <v>95</v>
+      </c>
+      <c r="H62" t="s">
+        <v>96</v>
       </c>
       <c r="I62" t="s">
-        <v>96</v>
-      </c>
-      <c r="J62" t="s">
-        <v>90</v>
+        <v>90</v>
+      </c>
+      <c r="K62" t="s">
+        <v>101</v>
       </c>
       <c r="L62" t="s">
-        <v>101</v>
+        <v>23</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
@@ -3214,22 +3212,22 @@
         <v>179</v>
       </c>
       <c r="D63" t="s">
-        <v>23</v>
-      </c>
-      <c r="E63" t="s">
-        <v>94</v>
-      </c>
-      <c r="G63" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="F63" t="s">
+        <v>95</v>
+      </c>
+      <c r="H63" t="s">
+        <v>173</v>
       </c>
       <c r="I63" t="s">
-        <v>173</v>
-      </c>
-      <c r="J63" t="s">
-        <v>90</v>
+        <v>90</v>
+      </c>
+      <c r="K63" t="s">
+        <v>178</v>
       </c>
       <c r="L63" t="s">
-        <v>178</v>
+        <v>23</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
@@ -3243,22 +3241,22 @@
         <v>75</v>
       </c>
       <c r="D64" t="s">
-        <v>23</v>
-      </c>
-      <c r="E64" t="s">
-        <v>94</v>
-      </c>
-      <c r="G64" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="F64" t="s">
+        <v>95</v>
+      </c>
+      <c r="H64" t="s">
+        <v>96</v>
       </c>
       <c r="I64" t="s">
-        <v>96</v>
-      </c>
-      <c r="J64" t="s">
-        <v>90</v>
+        <v>90</v>
+      </c>
+      <c r="K64" t="s">
+        <v>101</v>
       </c>
       <c r="L64" t="s">
-        <v>101</v>
+        <v>23</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
@@ -3272,22 +3270,22 @@
         <v>93</v>
       </c>
       <c r="D65" t="s">
-        <v>23</v>
-      </c>
-      <c r="E65" t="s">
-        <v>94</v>
-      </c>
-      <c r="G65" t="s">
-        <v>114</v>
+        <v>94</v>
+      </c>
+      <c r="F65" t="s">
+        <v>114</v>
+      </c>
+      <c r="H65" t="s">
+        <v>176</v>
       </c>
       <c r="I65" t="s">
-        <v>176</v>
-      </c>
-      <c r="J65" t="s">
-        <v>90</v>
+        <v>90</v>
+      </c>
+      <c r="K65" t="s">
+        <v>172</v>
       </c>
       <c r="L65" t="s">
-        <v>172</v>
+        <v>23</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
@@ -3301,22 +3299,22 @@
         <v>64</v>
       </c>
       <c r="D66" t="s">
-        <v>23</v>
-      </c>
-      <c r="E66" t="s">
-        <v>94</v>
-      </c>
-      <c r="G66" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="F66" t="s">
+        <v>95</v>
+      </c>
+      <c r="H66" t="s">
+        <v>96</v>
       </c>
       <c r="I66" t="s">
-        <v>96</v>
-      </c>
-      <c r="J66" t="s">
-        <v>90</v>
+        <v>90</v>
+      </c>
+      <c r="K66" t="s">
+        <v>101</v>
       </c>
       <c r="L66" t="s">
-        <v>101</v>
+        <v>23</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
@@ -3330,22 +3328,22 @@
         <v>53</v>
       </c>
       <c r="D67" t="s">
-        <v>23</v>
-      </c>
-      <c r="E67" t="s">
-        <v>94</v>
-      </c>
-      <c r="G67" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="F67" t="s">
+        <v>95</v>
+      </c>
+      <c r="H67" t="s">
+        <v>96</v>
       </c>
       <c r="I67" t="s">
-        <v>96</v>
-      </c>
-      <c r="J67" t="s">
-        <v>90</v>
+        <v>90</v>
+      </c>
+      <c r="K67" t="s">
+        <v>101</v>
       </c>
       <c r="L67" t="s">
-        <v>101</v>
+        <v>23</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
@@ -3359,22 +3357,22 @@
         <v>185</v>
       </c>
       <c r="D68" t="s">
-        <v>23</v>
-      </c>
-      <c r="E68" t="s">
-        <v>94</v>
-      </c>
-      <c r="G68" t="s">
-        <v>114</v>
+        <v>94</v>
+      </c>
+      <c r="F68" t="s">
+        <v>114</v>
+      </c>
+      <c r="H68" t="s">
+        <v>176</v>
       </c>
       <c r="I68" t="s">
-        <v>176</v>
-      </c>
-      <c r="J68" t="s">
-        <v>90</v>
+        <v>90</v>
+      </c>
+      <c r="K68" t="s">
+        <v>172</v>
       </c>
       <c r="L68" t="s">
-        <v>172</v>
+        <v>23</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
@@ -3388,22 +3386,22 @@
         <v>177</v>
       </c>
       <c r="D69" t="s">
-        <v>23</v>
-      </c>
-      <c r="E69" t="s">
-        <v>94</v>
-      </c>
-      <c r="G69" t="s">
-        <v>114</v>
+        <v>94</v>
+      </c>
+      <c r="F69" t="s">
+        <v>114</v>
+      </c>
+      <c r="H69" t="s">
+        <v>176</v>
       </c>
       <c r="I69" t="s">
-        <v>176</v>
-      </c>
-      <c r="J69" t="s">
-        <v>90</v>
+        <v>90</v>
+      </c>
+      <c r="K69" t="s">
+        <v>172</v>
       </c>
       <c r="L69" t="s">
-        <v>172</v>
+        <v>23</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
@@ -3417,22 +3415,22 @@
         <v>42</v>
       </c>
       <c r="D70" t="s">
-        <v>23</v>
-      </c>
-      <c r="E70" t="s">
-        <v>94</v>
-      </c>
-      <c r="G70" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="F70" t="s">
+        <v>95</v>
+      </c>
+      <c r="H70" t="s">
+        <v>96</v>
       </c>
       <c r="I70" t="s">
-        <v>96</v>
-      </c>
-      <c r="J70" t="s">
-        <v>90</v>
+        <v>90</v>
+      </c>
+      <c r="K70" t="s">
+        <v>101</v>
       </c>
       <c r="L70" t="s">
-        <v>101</v>
+        <v>23</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
@@ -3446,22 +3444,22 @@
         <v>174</v>
       </c>
       <c r="D71" t="s">
-        <v>23</v>
-      </c>
-      <c r="E71" t="s">
-        <v>94</v>
-      </c>
-      <c r="G71" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="F71" t="s">
+        <v>95</v>
+      </c>
+      <c r="H71" t="s">
+        <v>173</v>
       </c>
       <c r="I71" t="s">
-        <v>173</v>
-      </c>
-      <c r="J71" t="s">
-        <v>90</v>
+        <v>90</v>
+      </c>
+      <c r="K71" t="s">
+        <v>172</v>
       </c>
       <c r="L71" t="s">
-        <v>172</v>
+        <v>23</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
@@ -3475,32 +3473,32 @@
         <v>31</v>
       </c>
       <c r="D72" t="s">
-        <v>23</v>
-      </c>
-      <c r="E72" t="s">
-        <v>94</v>
-      </c>
-      <c r="G72" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="F72" t="s">
+        <v>95</v>
+      </c>
+      <c r="H72" t="s">
+        <v>98</v>
       </c>
       <c r="I72" t="s">
-        <v>98</v>
-      </c>
-      <c r="J72" t="s">
-        <v>90</v>
+        <v>90</v>
+      </c>
+      <c r="K72" t="s">
+        <v>101</v>
       </c>
       <c r="L72" t="s">
-        <v>101</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U78">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T78">
     <sortCondition ref="C57"/>
   </sortState>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="D1">
+  <conditionalFormatting sqref="L1">
     <cfRule type="notContainsBlanks" dxfId="1" priority="1">
-      <formula>LEN(TRIM(D1))&gt;0</formula>
+      <formula>LEN(TRIM(L1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5574,8 +5572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FC08DCA-C4A5-4852-BDE8-0BAFAC300FBF}">
   <dimension ref="A1:C73"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
